--- a/Analysis/Money.xlsx
+++ b/Analysis/Money.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E41E7C1-FC55-48D8-8E5E-39FFAE1C8FC7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B4251F-791E-494A-B04E-3A730574F407}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021" calcMode="manual" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,8 +24,66 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Tác giả</author>
+  </authors>
+  <commentList>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{E4ECA354-1215-4257-B82D-03FB47F6265A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tác giả:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Tạm ứng lần 2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{CEBD0644-2D5B-4FB3-A9F3-B76D46231939}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tác giả:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Tiền thiết kế gửi a học</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ĐángTQ</t>
   </si>
@@ -45,7 +103,13 @@
     <t>Ngày</t>
   </si>
   <si>
-    <t>Trả lần 1</t>
+    <t>Tổng chi</t>
+  </si>
+  <si>
+    <t>Tổng thu</t>
+  </si>
+  <si>
+    <t>Còn lại</t>
   </si>
 </sst>
 </file>
@@ -54,9 +118,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,6 +134,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -110,12 +187,12 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -396,11 +473,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,13 +497,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <f xml:space="preserve"> SUM(B6,B8,C8,C7,C6,D6)</f>
-        <v>15500000</v>
-      </c>
+      <c r="B2" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -456,16 +527,16 @@
       <c r="D6" s="4">
         <v>3000000</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="4">
         <v>3500000</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
@@ -477,68 +548,70 @@
       <c r="C8" s="4">
         <v>3000000</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4">
+        <v>1500000</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B17" s="6">
         <f>SUM(B6:B16)</f>
@@ -546,7 +619,7 @@
       </c>
       <c r="C17" s="6">
         <f>SUM(C6:C16)</f>
-        <v>8000000</v>
+        <v>9500000</v>
       </c>
       <c r="D17" s="6">
         <f>SUM(D6:D16)</f>
@@ -554,10 +627,34 @@
       </c>
       <c r="E17" s="6">
         <f>SUM(B17:D17)</f>
-        <v>15500000</v>
+        <v>17000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6">
+        <v>66000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6">
+        <f>E18-E17</f>
+        <v>49000000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Analysis/Money.xlsx
+++ b/Analysis/Money.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B4251F-791E-494A-B04E-3A730574F407}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78531758-2FE9-4BCB-82D1-CAE64650D8A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{CEBD0644-2D5B-4FB3-A9F3-B76D46231939}">
+    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{CEBD0644-2D5B-4FB3-A9F3-B76D46231939}">
       <text>
         <r>
           <rPr>
@@ -78,12 +78,34 @@
         </r>
       </text>
     </comment>
+    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{29A4C028-71E8-437C-9380-853C9B09951E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+          </rPr>
+          <t>Tác giả:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+          </rPr>
+          <t xml:space="preserve">
+Tiền máy chủ azure lần 1</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ĐángTQ</t>
   </si>
@@ -110,6 +132,9 @@
   </si>
   <si>
     <t>Còn lại</t>
+  </si>
+  <si>
+    <t>Chung</t>
   </si>
 </sst>
 </file>
@@ -120,7 +145,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +172,17 @@
       <color indexed="81"/>
       <name val="Segoe UI"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
     </font>
   </fonts>
   <fills count="2">
@@ -474,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,10 +521,11 @@
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -496,10 +533,10 @@
         <v>66000000</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -513,10 +550,13 @@
         <v>2</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="4">
         <v>1500000</v>
@@ -528,17 +568,17 @@
         <v>3000000</v>
       </c>
       <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4">
         <v>3500000</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>43311</v>
       </c>
@@ -550,66 +590,84 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="4">
+      <c r="D9" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="E9" s="4">
         <v>1500000</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>43372</v>
+      </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="D10" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="E10" s="4">
+        <v>400000</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
@@ -619,38 +677,44 @@
       </c>
       <c r="C17" s="6">
         <f>SUM(C6:C16)</f>
-        <v>9500000</v>
+        <v>11000000</v>
       </c>
       <c r="D17" s="6">
         <f>SUM(D6:D16)</f>
-        <v>3000000</v>
+        <v>9000000</v>
       </c>
       <c r="E17" s="6">
-        <f>SUM(B17:D17)</f>
-        <v>17000000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <f xml:space="preserve"> SUM(E6:E16)</f>
+        <v>1900000</v>
+      </c>
+      <c r="F17" s="6">
+        <f>SUM(B17:E17)</f>
+        <v>26400000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="6">
+      <c r="E18" s="6"/>
+      <c r="F18" s="6">
         <v>66000000</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="6">
-        <f>E18-E17</f>
-        <v>49000000</v>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6">
+        <f>F18-F17</f>
+        <v>39600000</v>
       </c>
     </row>
   </sheetData>

--- a/Analysis/Money.xlsx
+++ b/Analysis/Money.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78531758-2FE9-4BCB-82D1-CAE64650D8A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A1CE18-CFB7-4D64-B6D4-E215915DBE42}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -513,7 +513,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Analysis/Money.xlsx
+++ b/Analysis/Money.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A1CE18-CFB7-4D64-B6D4-E215915DBE42}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F41F55-F0EB-471B-BD4F-6D78A11BB2E3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -513,7 +513,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,15 +620,18 @@
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="5">
+        <v>43393</v>
+      </c>
+      <c r="B11" s="4">
+        <v>6500000</v>
+      </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -673,7 +676,7 @@
       </c>
       <c r="B17" s="6">
         <f>SUM(B6:B16)</f>
-        <v>4500000</v>
+        <v>11000000</v>
       </c>
       <c r="C17" s="6">
         <f>SUM(C6:C16)</f>
@@ -689,7 +692,7 @@
       </c>
       <c r="F17" s="6">
         <f>SUM(B17:E17)</f>
-        <v>26400000</v>
+        <v>32900000</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -714,7 +717,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6">
         <f>F18-F17</f>
-        <v>39600000</v>
+        <v>33100000</v>
       </c>
     </row>
   </sheetData>

--- a/Analysis/Money.xlsx
+++ b/Analysis/Money.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F41F55-F0EB-471B-BD4F-6D78A11BB2E3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021" calcMode="manual" concurrentCalc="0"/>
+  <calcPr calcId="162913" calcMode="manual" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,12 +24,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Tác giả</author>
+    <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{E4ECA354-1215-4257-B82D-03FB47F6265A}">
+    <comment ref="C7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -40,7 +39,7 @@
             <rFont val="Segoe UI"/>
             <charset val="1"/>
           </rPr>
-          <t>Tác giả:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -54,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{CEBD0644-2D5B-4FB3-A9F3-B76D46231939}">
+    <comment ref="E9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -64,7 +63,7 @@
             <rFont val="Segoe UI"/>
             <charset val="1"/>
           </rPr>
-          <t>Tác giả:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -78,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{29A4C028-71E8-437C-9380-853C9B09951E}">
+    <comment ref="E10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +86,7 @@
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
           </rPr>
-          <t>Tác giả:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -140,7 +139,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -221,7 +220,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -229,10 +228,11 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
-    <cellStyle name="Dấu phẩy" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -509,18 +509,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -632,9 +631,18 @@
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="A12" s="7">
+        <v>43401</v>
+      </c>
+      <c r="B12" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="C12" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="D12" s="4">
+        <v>3000000</v>
+      </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
@@ -676,15 +684,15 @@
       </c>
       <c r="B17" s="6">
         <f>SUM(B6:B16)</f>
-        <v>11000000</v>
+        <v>14000000</v>
       </c>
       <c r="C17" s="6">
         <f>SUM(C6:C16)</f>
-        <v>11000000</v>
+        <v>14000000</v>
       </c>
       <c r="D17" s="6">
         <f>SUM(D6:D16)</f>
-        <v>9000000</v>
+        <v>12000000</v>
       </c>
       <c r="E17" s="6">
         <f xml:space="preserve"> SUM(E6:E16)</f>
@@ -692,7 +700,7 @@
       </c>
       <c r="F17" s="6">
         <f>SUM(B17:E17)</f>
-        <v>32900000</v>
+        <v>41900000</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -717,7 +725,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6">
         <f>F18-F17</f>
-        <v>33100000</v>
+        <v>24100000</v>
       </c>
     </row>
   </sheetData>

--- a/Analysis/Money.xlsx
+++ b/Analysis/Money.xlsx
@@ -99,6 +99,52 @@
         </r>
       </text>
     </comment>
+    <comment ref="E11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+          </rPr>
+          <t xml:space="preserve">
+Tiền máy chủ azure lần 1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Tiền máy chủ azure lần 2: 7.23$</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -144,7 +190,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +228,19 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Segoe UI"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -513,7 +572,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,7 +702,9 @@
       <c r="D12" s="4">
         <v>3000000</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="4">
+        <v>168000</v>
+      </c>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -696,11 +757,11 @@
       </c>
       <c r="E17" s="6">
         <f xml:space="preserve"> SUM(E6:E16)</f>
-        <v>1900000</v>
+        <v>2068000</v>
       </c>
       <c r="F17" s="6">
         <f>SUM(B17:E17)</f>
-        <v>41900000</v>
+        <v>42068000</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -725,7 +786,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6">
         <f>F18-F17</f>
-        <v>24100000</v>
+        <v>23932000</v>
       </c>
     </row>
   </sheetData>

--- a/Analysis/Money.xlsx
+++ b/Analysis/Money.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E8156E-C391-447C-B565-F147601C19D2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual" concurrentCalc="0"/>
+  <calcPr calcId="179021" calcMode="manual" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Author</author>
+    <author>Tác giả</author>
   </authors>
   <commentList>
-    <comment ref="C7" authorId="0" shapeId="0">
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -39,7 +40,7 @@
             <rFont val="Segoe UI"/>
             <charset val="1"/>
           </rPr>
-          <t>Author:</t>
+          <t>Tác giả:</t>
         </r>
         <r>
           <rPr>
@@ -53,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0" shapeId="0">
+    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -63,7 +64,7 @@
             <rFont val="Segoe UI"/>
             <charset val="1"/>
           </rPr>
-          <t>Author:</t>
+          <t>Tác giả:</t>
         </r>
         <r>
           <rPr>
@@ -77,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E10" authorId="0" shapeId="0">
+    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -86,7 +87,7 @@
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
           </rPr>
-          <t>Author:</t>
+          <t>Tác giả:</t>
         </r>
         <r>
           <rPr>
@@ -99,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0" shapeId="0">
+    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -108,7 +109,7 @@
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
           </rPr>
-          <t>Author:</t>
+          <t>Tác giả:</t>
         </r>
         <r>
           <rPr>
@@ -121,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E12" authorId="0" shapeId="0">
+    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -131,7 +132,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Author:</t>
+          <t>Tác giả:</t>
         </r>
         <r>
           <rPr>
@@ -142,6 +143,30 @@
           </rPr>
           <t xml:space="preserve">
 Tiền máy chủ azure lần 2: 7.23$</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{3D05E5C2-F395-474F-A333-9618D83861B4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tác giả:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Đáng TQ vay</t>
         </r>
       </text>
     </comment>
@@ -185,7 +210,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -290,8 +315,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Dấu phẩy" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -568,11 +593,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,7 +734,9 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
+      <c r="B13" s="4">
+        <v>20000000</v>
+      </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -745,7 +772,7 @@
       </c>
       <c r="B17" s="6">
         <f>SUM(B6:B16)</f>
-        <v>14000000</v>
+        <v>34000000</v>
       </c>
       <c r="C17" s="6">
         <f>SUM(C6:C16)</f>
@@ -761,7 +788,7 @@
       </c>
       <c r="F17" s="6">
         <f>SUM(B17:E17)</f>
-        <v>42068000</v>
+        <v>62068000</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -786,7 +813,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6">
         <f>F18-F17</f>
-        <v>23932000</v>
+        <v>3932000</v>
       </c>
     </row>
   </sheetData>

--- a/Analysis/Money.xlsx
+++ b/Analysis/Money.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E8156E-C391-447C-B565-F147601C19D2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D393E2B-F017-4AD8-B58B-765456B25334}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021" calcMode="manual" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,6 +18,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -167,6 +168,30 @@
           </rPr>
           <t xml:space="preserve">
 Đáng TQ vay</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D13" authorId="0" shapeId="0" xr:uid="{59005553-0EE8-4D54-AA90-03B7A0554D2F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tác giả:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+HưngTD vay</t>
         </r>
       </text>
     </comment>
@@ -597,7 +622,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,10 +760,12 @@
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="4">
-        <v>20000000</v>
+        <v>10000000</v>
       </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="D13" s="4">
+        <v>10000000</v>
+      </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
@@ -772,7 +799,7 @@
       </c>
       <c r="B17" s="6">
         <f>SUM(B6:B16)</f>
-        <v>34000000</v>
+        <v>24000000</v>
       </c>
       <c r="C17" s="6">
         <f>SUM(C6:C16)</f>
@@ -780,7 +807,7 @@
       </c>
       <c r="D17" s="6">
         <f>SUM(D6:D16)</f>
-        <v>12000000</v>
+        <v>22000000</v>
       </c>
       <c r="E17" s="6">
         <f xml:space="preserve"> SUM(E6:E16)</f>

--- a/Analysis/Money.xlsx
+++ b/Analysis/Money.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D393E2B-F017-4AD8-B58B-765456B25334}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Tác giả</author>
+    <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -41,7 +40,7 @@
             <rFont val="Segoe UI"/>
             <charset val="1"/>
           </rPr>
-          <t>Tác giả:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -55,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="E9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +64,7 @@
             <rFont val="Segoe UI"/>
             <charset val="1"/>
           </rPr>
-          <t>Tác giả:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -79,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="E10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -88,7 +87,7 @@
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
           </rPr>
-          <t>Tác giả:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -101,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="E11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -110,7 +109,7 @@
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
           </rPr>
-          <t>Tác giả:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -123,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="E12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -133,7 +132,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Tác giả:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -147,7 +146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{3D05E5C2-F395-474F-A333-9618D83861B4}">
+    <comment ref="B13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -157,7 +156,7 @@
             <rFont val="Segoe UI"/>
             <charset val="1"/>
           </rPr>
-          <t>Tác giả:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -171,7 +170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D13" authorId="0" shapeId="0" xr:uid="{59005553-0EE8-4D54-AA90-03B7A0554D2F}">
+    <comment ref="D13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -181,7 +180,7 @@
             <rFont val="Segoe UI"/>
             <charset val="1"/>
           </rPr>
-          <t>Tác giả:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -235,7 +234,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -340,8 +339,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
-    <cellStyle name="Dấu phẩy" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -618,11 +617,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,8 +769,12 @@
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="5">
+        <v>43433</v>
+      </c>
+      <c r="B14" s="4">
+        <v>3000000</v>
+      </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -799,7 +802,7 @@
       </c>
       <c r="B17" s="6">
         <f>SUM(B6:B16)</f>
-        <v>24000000</v>
+        <v>27000000</v>
       </c>
       <c r="C17" s="6">
         <f>SUM(C6:C16)</f>
@@ -815,7 +818,7 @@
       </c>
       <c r="F17" s="6">
         <f>SUM(B17:E17)</f>
-        <v>62068000</v>
+        <v>65068000</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -840,7 +843,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6">
         <f>F18-F17</f>
-        <v>3932000</v>
+        <v>932000</v>
       </c>
     </row>
   </sheetData>

--- a/Analysis/Money.xlsx
+++ b/Analysis/Money.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A558F18B-EFBB-4549-AA87-C06C9AC5CB89}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,12 +26,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Author</author>
+    <author>Tác giả</author>
   </authors>
   <commentList>
-    <comment ref="C7" authorId="0" shapeId="0">
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -38,23 +39,23 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tác giả:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Tạm ứng lần 2</t>
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0" shapeId="0">
+    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -62,23 +63,23 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tác giả:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Tiền thiết kế gửi a học</t>
         </r>
       </text>
     </comment>
-    <comment ref="E10" authorId="0" shapeId="0">
+    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -86,21 +87,23 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tác giả:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Tiền máy chủ azure lần 1</t>
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0" shapeId="0">
+    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -108,21 +111,23 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tác giả:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Tiền máy chủ azure lần 1</t>
         </r>
       </text>
     </comment>
-    <comment ref="E12" authorId="0" shapeId="0">
+    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -130,23 +135,23 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Author:</t>
+            <family val="2"/>
+          </rPr>
+          <t>Tác giả:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Tiền máy chủ azure lần 2: 7.23$</t>
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0" shapeId="0">
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -154,23 +159,23 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tác giả:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Đáng TQ vay</t>
         </r>
       </text>
     </comment>
-    <comment ref="D13" authorId="0" shapeId="0">
+    <comment ref="D13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -178,16 +183,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tác giả:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 HưngTD vay</t>
@@ -234,12 +239,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,38 +263,27 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Segoe UI"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Segoe UI"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -339,8 +333,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Dấu phẩy" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -617,11 +611,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,6 +624,7 @@
     <col min="2" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -781,8 +776,12 @@
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
+      <c r="A15" s="5">
+        <v>43464</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1000000</v>
+      </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -796,13 +795,13 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="6">
         <f>SUM(B6:B16)</f>
-        <v>27000000</v>
+        <v>28000000</v>
       </c>
       <c r="C17" s="6">
         <f>SUM(C6:C16)</f>
@@ -818,10 +817,10 @@
       </c>
       <c r="F17" s="6">
         <f>SUM(B17:E17)</f>
-        <v>65068000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>66068000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>7</v>
       </c>
@@ -833,7 +832,7 @@
         <v>66000000</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
@@ -843,7 +842,11 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6">
         <f>F18-F17</f>
-        <v>932000</v>
+        <v>-68000</v>
+      </c>
+      <c r="M19" s="2">
+        <f>D17+C17+B17+E17-66</f>
+        <v>66067934</v>
       </c>
     </row>
   </sheetData>

--- a/Analysis/Money.xlsx
+++ b/Analysis/Money.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A558F18B-EFBB-4549-AA87-C06C9AC5CB89}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Tác giả</author>
+    <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -41,7 +40,7 @@
             <rFont val="Segoe UI"/>
             <family val="2"/>
           </rPr>
-          <t>Tác giả:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -55,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="E12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +64,7 @@
             <rFont val="Segoe UI"/>
             <family val="2"/>
           </rPr>
-          <t>Tác giả:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -79,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="E13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -89,7 +88,7 @@
             <rFont val="Segoe UI"/>
             <family val="2"/>
           </rPr>
-          <t>Tác giả:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -103,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="E14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -113,7 +112,7 @@
             <rFont val="Segoe UI"/>
             <family val="2"/>
           </rPr>
-          <t>Tác giả:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -127,7 +126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="E15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -137,7 +136,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Tác giả:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -151,7 +150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="B16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -161,7 +160,7 @@
             <rFont val="Segoe UI"/>
             <family val="2"/>
           </rPr>
-          <t>Tác giả:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -175,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="D16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -185,7 +184,7 @@
             <rFont val="Segoe UI"/>
             <family val="2"/>
           </rPr>
-          <t>Tác giả:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -196,6 +195,54 @@
           </rPr>
           <t xml:space="preserve">
 HưngTD vay</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B20" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Dangtq ứng trước</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C20" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Sáng DD ứng trước</t>
         </r>
       </text>
     </comment>
@@ -204,7 +251,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>ĐángTQ</t>
   </si>
@@ -235,16 +282,19 @@
   <si>
     <t>Chung</t>
   </si>
+  <si>
+    <t>Nhận lần 2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,6 +334,19 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -333,8 +396,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
-    <cellStyle name="Dấu phẩy" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -611,19 +674,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -636,139 +700,116 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1">
+        <v>66000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <f>SUM(B1:B5)</f>
+        <v>132000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4">
-        <v>1500000</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1500000</v>
-      </c>
-      <c r="D6" s="4">
-        <v>3000000</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4">
-        <v>3500000</v>
-      </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>43311</v>
-      </c>
-      <c r="B8" s="4">
-        <v>3000000</v>
-      </c>
-      <c r="C8" s="4">
-        <v>3000000</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
+      <c r="B9" s="4">
+        <v>1500000</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1500000</v>
+      </c>
       <c r="D9" s="4">
         <v>3000000</v>
       </c>
-      <c r="E9" s="4">
-        <v>1500000</v>
-      </c>
+      <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>43372</v>
-      </c>
+      <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4">
-        <v>3000000</v>
-      </c>
-      <c r="D10" s="4">
-        <v>3000000</v>
-      </c>
-      <c r="E10" s="4">
-        <v>400000</v>
-      </c>
+        <v>3500000</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <v>43393</v>
+        <v>43311</v>
       </c>
       <c r="B11" s="4">
-        <v>6500000</v>
-      </c>
-      <c r="C11" s="4"/>
+        <v>3000000</v>
+      </c>
+      <c r="C11" s="4">
+        <v>3000000</v>
+      </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>43401</v>
-      </c>
-      <c r="B12" s="4">
-        <v>3000000</v>
-      </c>
-      <c r="C12" s="4">
-        <v>3000000</v>
-      </c>
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
       <c r="D12" s="4">
         <v>3000000</v>
       </c>
       <c r="E12" s="4">
-        <v>168000</v>
+        <v>1500000</v>
       </c>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4">
-        <v>10000000</v>
-      </c>
-      <c r="C13" s="4"/>
+      <c r="A13" s="5">
+        <v>43372</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4">
+        <v>3000000</v>
+      </c>
       <c r="D13" s="4">
-        <v>10000000</v>
-      </c>
-      <c r="E13" s="4"/>
+        <v>3000000</v>
+      </c>
+      <c r="E13" s="4">
+        <v>400000</v>
+      </c>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <v>43433</v>
+        <v>43393</v>
       </c>
       <c r="B14" s="4">
-        <v>3000000</v>
+        <v>6500000</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -776,77 +817,190 @@
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>43464</v>
+      <c r="A15" s="7">
+        <v>43401</v>
       </c>
       <c r="B15" s="4">
-        <v>1000000</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+        <v>3000000</v>
+      </c>
+      <c r="C15" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="D15" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="E15" s="4">
+        <v>168000</v>
+      </c>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
+      <c r="A16" s="5">
+        <v>43433</v>
+      </c>
+      <c r="B16" s="4">
+        <v>3000000</v>
+      </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="D16" s="4">
+        <v>10000000</v>
+      </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="5">
+        <v>43464</v>
+      </c>
+      <c r="B17" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>43496</v>
+      </c>
+      <c r="B18" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>43497</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4">
+        <v>30000000</v>
+      </c>
+      <c r="C20" s="4">
+        <v>15000000</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="6">
-        <f>SUM(B6:B16)</f>
-        <v>28000000</v>
-      </c>
-      <c r="C17" s="6">
-        <f>SUM(C6:C16)</f>
-        <v>14000000</v>
-      </c>
-      <c r="D17" s="6">
-        <f>SUM(D6:D16)</f>
+      <c r="B28" s="6">
+        <f>SUM(B9:B20)</f>
+        <v>54000000</v>
+      </c>
+      <c r="C28" s="6">
+        <f>SUM(C9:C20)</f>
+        <v>29000000</v>
+      </c>
+      <c r="D28" s="6">
+        <f>SUM(D9:D19)</f>
         <v>22000000</v>
       </c>
-      <c r="E17" s="6">
-        <f xml:space="preserve"> SUM(E6:E16)</f>
+      <c r="E28" s="6">
+        <f xml:space="preserve"> SUM(E9:E19)</f>
         <v>2068000</v>
       </c>
-      <c r="F17" s="6">
-        <f>SUM(B17:E17)</f>
-        <v>66068000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="F28" s="6">
+        <f>SUM(B28:E28)</f>
+        <v>107068000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6">
-        <v>66000000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6">
+        <f>B6</f>
+        <v>132000000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6">
-        <f>F18-F17</f>
-        <v>-68000</v>
-      </c>
-      <c r="M19" s="2">
-        <f>D17+C17+B17+E17-66</f>
-        <v>66067934</v>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6">
+        <f>F29-F28</f>
+        <v>24932000</v>
       </c>
     </row>
   </sheetData>

--- a/Analysis/Money.xlsx
+++ b/Analysis/Money.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562A109E-E872-4827-879F-17545F13395D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,12 +26,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Author</author>
+    <author>Tác giả</author>
   </authors>
   <commentList>
-    <comment ref="C10" authorId="0" shapeId="0">
+    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -40,7 +41,7 @@
             <rFont val="Segoe UI"/>
             <family val="2"/>
           </rPr>
-          <t>Author:</t>
+          <t>Tác giả:</t>
         </r>
         <r>
           <rPr>
@@ -54,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E12" authorId="0" shapeId="0">
+    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -64,7 +65,7 @@
             <rFont val="Segoe UI"/>
             <family val="2"/>
           </rPr>
-          <t>Author:</t>
+          <t>Tác giả:</t>
         </r>
         <r>
           <rPr>
@@ -78,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E13" authorId="0" shapeId="0">
+    <comment ref="E13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -88,7 +89,7 @@
             <rFont val="Segoe UI"/>
             <family val="2"/>
           </rPr>
-          <t>Author:</t>
+          <t>Tác giả:</t>
         </r>
         <r>
           <rPr>
@@ -102,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E14" authorId="0" shapeId="0">
+    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -112,7 +113,7 @@
             <rFont val="Segoe UI"/>
             <family val="2"/>
           </rPr>
-          <t>Author:</t>
+          <t>Tác giả:</t>
         </r>
         <r>
           <rPr>
@@ -126,7 +127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E15" authorId="0" shapeId="0">
+    <comment ref="E15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -136,7 +137,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Author:</t>
+          <t>Tác giả:</t>
         </r>
         <r>
           <rPr>
@@ -150,7 +151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="0" shapeId="0">
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -160,7 +161,7 @@
             <rFont val="Segoe UI"/>
             <family val="2"/>
           </rPr>
-          <t>Author:</t>
+          <t>Tác giả:</t>
         </r>
         <r>
           <rPr>
@@ -174,7 +175,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D16" authorId="0" shapeId="0">
+    <comment ref="D16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -184,7 +185,7 @@
             <rFont val="Segoe UI"/>
             <family val="2"/>
           </rPr>
-          <t>Author:</t>
+          <t>Tác giả:</t>
         </r>
         <r>
           <rPr>
@@ -198,7 +199,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B20" authorId="0" shapeId="0">
+    <comment ref="B20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -208,7 +209,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Author:</t>
+          <t>Tác giả:</t>
         </r>
         <r>
           <rPr>
@@ -222,7 +223,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="0" shapeId="0">
+    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -232,7 +233,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Author:</t>
+          <t>Tác giả:</t>
         </r>
         <r>
           <rPr>
@@ -243,6 +244,30 @@
           </rPr>
           <t xml:space="preserve">
 Sáng DD ứng trước</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D21" authorId="0" shapeId="0" xr:uid="{500563BC-F3D0-4B22-A92F-E48BBF7D76B5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tác giả:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Hưng TD ứng trước</t>
         </r>
       </text>
     </comment>
@@ -289,7 +314,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -396,8 +421,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Dấu phẩy" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -674,11 +699,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,10 +921,14 @@
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
+      <c r="A21" s="5">
+        <v>43515</v>
+      </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="D21" s="4">
+        <v>15000000</v>
+      </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
@@ -961,12 +990,12 @@
         <v>54000000</v>
       </c>
       <c r="C28" s="6">
-        <f>SUM(C9:C20)</f>
+        <f>SUM(C9:C27)</f>
         <v>29000000</v>
       </c>
       <c r="D28" s="6">
-        <f>SUM(D9:D19)</f>
-        <v>22000000</v>
+        <f>SUM(D9:D27)</f>
+        <v>37000000</v>
       </c>
       <c r="E28" s="6">
         <f xml:space="preserve"> SUM(E9:E19)</f>
@@ -974,7 +1003,7 @@
       </c>
       <c r="F28" s="6">
         <f>SUM(B28:E28)</f>
-        <v>107068000</v>
+        <v>122068000</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -1000,7 +1029,7 @@
       <c r="E30" s="6"/>
       <c r="F30" s="6">
         <f>F29-F28</f>
-        <v>24932000</v>
+        <v>9932000</v>
       </c>
     </row>
   </sheetData>

--- a/Analysis/Money.xlsx
+++ b/Analysis/Money.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562A109E-E872-4827-879F-17545F13395D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCE29F3-B9D5-4F54-9BED-2F931C9168EA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -276,7 +276,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>ĐángTQ</t>
   </si>
@@ -309,6 +309,9 @@
   </si>
   <si>
     <t>Nhận lần 2</t>
+  </si>
+  <si>
+    <t>Nhận lần 3</t>
   </si>
 </sst>
 </file>
@@ -702,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,13 +735,21 @@
         <v>66000000</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1">
+        <v>6000000</v>
+      </c>
+    </row>
     <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="2">
         <f>SUM(B1:B5)</f>
-        <v>132000000</v>
+        <v>138000000</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1016,7 +1027,7 @@
       <c r="E29" s="6"/>
       <c r="F29" s="6">
         <f>B6</f>
-        <v>132000000</v>
+        <v>138000000</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -1029,7 +1040,7 @@
       <c r="E30" s="6"/>
       <c r="F30" s="6">
         <f>F29-F28</f>
-        <v>9932000</v>
+        <v>15932000</v>
       </c>
     </row>
   </sheetData>
